--- a/notebooks/sub_new_nodes_transfer_all.xlsx
+++ b/notebooks/sub_new_nodes_transfer_all.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -561,7 +561,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'50', '47', '54'}</t>
+          <t>{'47', '50', '54'}</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'50', '47', '54'}</t>
+          <t>{'47', '50', '54'}</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'54', '44', '49', '47', '50', '66'}</t>
+          <t>{'54', '49', '47', '44', '66', '50'}</t>
         </is>
       </c>
     </row>
@@ -965,7 +965,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'54', '50', '53'}</t>
+          <t>{'50', '54', '53'}</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'50', '4', '51', '62'}</t>
+          <t>{'4', '50', '51', '62'}</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'50', '52', '51'}</t>
+          <t>{'50', '51', '52'}</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'24', '62', '2', '50', '246', '15', '51'}</t>
+          <t>{'24', '15', '62', '246', '51', '50', '2'}</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'50', '2', '51'}</t>
+          <t>{'50', '51', '2'}</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'50', '17', '1', '51'}</t>
+          <t>{'50', '51', '17', '1'}</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'13', '19', '7', '50', '51'}</t>
+          <t>{'13', '19', '7', '51', '50'}</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'7', '50', '21', '51'}</t>
+          <t>{'50', '51', '21', '7'}</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'231', '61', '19', '36', '22', '369', '50', '15', '51'}</t>
+          <t>{'22', '231', '19', '369', '15', '61', '51', '50', '36'}</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'231', '61', '19', '36', '22', '369', '50', '15', '51'}</t>
+          <t>{'22', '231', '19', '369', '15', '61', '51', '50', '36'}</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'7', '50', '21', '51'}</t>
+          <t>{'50', '51', '21', '7'}</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'13', '19', '7', '50', '51'}</t>
+          <t>{'13', '19', '7', '51', '50'}</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'50', '17', '1', '51'}</t>
+          <t>{'50', '51', '17', '1'}</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'50', '2', '51'}</t>
+          <t>{'50', '51', '2'}</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'24', '62', '2', '50', '246', '15', '51'}</t>
+          <t>{'24', '15', '62', '246', '51', '50', '2'}</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'50', '52', '51'}</t>
+          <t>{'50', '51', '52'}</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'50', '4', '51', '62'}</t>
+          <t>{'4', '50', '51', '62'}</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'54', '50', '53'}</t>
+          <t>{'50', '54', '53'}</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'54', '44', '49', '47', '50', '66'}</t>
+          <t>{'54', '49', '47', '44', '66', '50'}</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>{'50', '47', '54'}</t>
+          <t>{'47', '50', '54'}</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>{'50', '47', '54'}</t>
+          <t>{'47', '50', '54'}</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>{'54', '53', '51'}</t>
+          <t>{'54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>{'12', '245', '40', '54', '53', '37', '240', '62', '65', '51'}</t>
+          <t>{'54', '240', '245', '53', '62', '37', '51', '65', '12', '40'}</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '53', '24', '43', '2', '22', '52', '4', '51'}</t>
+          <t>{'22', '14', '54', '24', '53', '13', '17', '51', '4', '12', '26', '52', '2', '43'}</t>
         </is>
       </c>
     </row>
@@ -3173,7 +3173,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>{'54', '53', '51'}</t>
+          <t>{'54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -3233,7 +3233,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>{'14', '54', '53', '51'}</t>
+          <t>{'14', '54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>{'54', '19', '53', '1', '7', '246', '51'}</t>
+          <t>{'54', '53', '19', '7', '1', '246', '51'}</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>{'54', '53', '51'}</t>
+          <t>{'54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>{'54', '53', '51'}</t>
+          <t>{'54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -3473,7 +3473,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>{'12', '245', '40', '54', '53', '37', '240', '62', '65', '51'}</t>
+          <t>{'54', '240', '245', '53', '62', '37', '51', '65', '12', '40'}</t>
         </is>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>{'54', '53', '51'}</t>
+          <t>{'54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>{'54', '19', '53', '1', '7', '246', '51'}</t>
+          <t>{'54', '53', '19', '7', '1', '246', '51'}</t>
         </is>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>{'14', '54', '53', '51'}</t>
+          <t>{'14', '54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -3709,7 +3709,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>{'54', '53', '51'}</t>
+          <t>{'54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '53', '24', '43', '2', '22', '52', '4', '51'}</t>
+          <t>{'22', '14', '54', '24', '53', '13', '17', '51', '4', '12', '26', '52', '2', '43'}</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>{'34', '245', '37', '36', '38', '52'}</t>
+          <t>{'245', '38', '34', '37', '52', '36'}</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>{'35', '52', '34'}</t>
+          <t>{'52', '35', '34'}</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '53', '24', '43', '2', '22', '52', '4', '51'}</t>
+          <t>{'22', '14', '54', '24', '53', '13', '17', '51', '4', '12', '26', '52', '2', '43'}</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>{'19', '24', '1', '7', '52'}</t>
+          <t>{'24', '19', '7', '1', '52'}</t>
         </is>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>{'50', '52', '51'}</t>
+          <t>{'50', '51', '52'}</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>{'19', '24', '1', '7', '52'}</t>
+          <t>{'24', '19', '7', '1', '52'}</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>{'14', '12', '13', '54', '17', '26', '53', '24', '43', '2', '22', '52', '4', '51'}</t>
+          <t>{'22', '14', '54', '24', '53', '13', '17', '51', '4', '12', '26', '52', '2', '43'}</t>
         </is>
       </c>
     </row>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>{'35', '52', '34'}</t>
+          <t>{'52', '35', '34'}</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>{'34', '245', '37', '36', '38', '52'}</t>
+          <t>{'245', '38', '34', '37', '52', '36'}</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>{'54', '53', '51'}</t>
+          <t>{'54', '51', '53'}</t>
         </is>
       </c>
     </row>
@@ -4741,7 +4741,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>{'54', '50', '53'}</t>
+          <t>{'50', '54', '53'}</t>
         </is>
       </c>
     </row>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>{'44', '53'}</t>
+          <t>{'53', '44'}</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>{'41', '66', '53'}</t>
+          <t>{'66', '41', '53'}</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>{'49', '41', '47', '53'}</t>
+          <t>{'47', '49', '41', '53'}</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>{'49', '47', '53'}</t>
+          <t>{'47', '49', '53'}</t>
         </is>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>{'49', '47', '53'}</t>
+          <t>{'47', '49', '53'}</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>{'49', '41', '47', '53'}</t>
+          <t>{'47', '49', '41', '53'}</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>{'41', '66', '53'}</t>
+          <t>{'66', '41', '53'}</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>{'44', '53'}</t>
+          <t>{'53', '44'}</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
-          <t>{'54', '50', '53'}</t>
+          <t>{'50', '54', '53'}</t>
         </is>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
       <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
-          <t>{'54', '53', '51'}</t>
+          <t>{'54', '51', '53'}</t>
         </is>
       </c>
     </row>
